--- a/Stimuli/words/practice.xlsx
+++ b/Stimuli/words/practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MBP/Box Sync/Research/programming projects/Spelling measure pc/Spelling measure/Stimuli/words/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F47ED0-BBC7-5646-96B2-8C8DBAA86627}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4312405B-645E-2A40-B6A6-78C401B8810C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="13820" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>word</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>dos</t>
+  </si>
+  <si>
+    <t>level 2</t>
+  </si>
+  <si>
+    <t>level 3</t>
+  </si>
+  <si>
+    <t>level 4</t>
+  </si>
+  <si>
+    <t>level 5</t>
   </si>
 </sst>
 </file>
@@ -423,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -495,7 +507,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -518,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -541,7 +553,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -564,7 +576,7 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
